--- a/app/datasets/gdp/state_gdp.xlsx
+++ b/app/datasets/gdp/state_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Music\econ-dashboard\app\datasets\gdp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484518D-7C6C-4E22-B625-4D959541F44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239AFF4D-4410-4647-9C1F-0B19A85697BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="10736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +326,10 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="33">
@@ -625,7 +629,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -669,6 +673,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -693,7 +698,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -732,6 +737,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{0296E56D-4101-4F33-AD35-FB5B892177D8}"/>
+    <cellStyle name="Normal 3" xfId="43" xr:uid="{9985D189-23AA-44A0-8201-847D05A8B554}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1016,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1415,16 +1421,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>297538.5206823987</v>
+        <v>297538.52</v>
       </c>
       <c r="C33" s="4">
-        <v>297538.52068239864</v>
+        <v>297538.52</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -1437,120 +1443,157 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>320911.91045360459</v>
+        <v>320911.90999999997</v>
       </c>
       <c r="C34" s="4">
-        <v>347032.01266926259</v>
+        <v>347032.01</v>
       </c>
       <c r="E34" s="5"/>
       <c r="G34" s="6"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>347506.60695386736</v>
+        <v>347506.6</v>
       </c>
       <c r="C35" s="4">
-        <v>399268.11618977698</v>
+        <v>399268.11</v>
       </c>
       <c r="E35" s="5"/>
       <c r="G35" s="6"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>370534.50666470983</v>
+        <v>370534.5</v>
       </c>
       <c r="C36" s="4">
-        <v>437144.71134774183</v>
+        <v>437144.71</v>
       </c>
       <c r="E36" s="5"/>
       <c r="G36" s="6"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>413404.78837080539</v>
+        <v>413404.78</v>
       </c>
       <c r="C37" s="4">
-        <v>495504.10640162957</v>
+        <v>495504.1</v>
       </c>
       <c r="E37" s="5"/>
       <c r="G37" s="6"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>456709.10575338936</v>
+        <v>456709.1</v>
       </c>
       <c r="C38" s="4">
-        <v>561424.1711553171</v>
+        <v>561424.17000000004</v>
       </c>
       <c r="E38" s="5"/>
       <c r="G38" s="6"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>487273.83678898617</v>
+        <v>487273.83</v>
       </c>
       <c r="C39" s="4">
-        <v>644963.22063958389</v>
+        <v>644963.22</v>
       </c>
       <c r="E39" s="5"/>
       <c r="G39" s="6"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>517079.9906336157</v>
+        <v>517079.99</v>
       </c>
       <c r="C40" s="4">
-        <v>704957.37832466571</v>
+        <v>704957.37</v>
       </c>
       <c r="E40" s="5"/>
       <c r="G40" s="6"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>559705.00053164747</v>
+        <v>559705</v>
       </c>
       <c r="C41" s="4">
-        <v>780612.35380656121</v>
+        <v>780612.35</v>
       </c>
       <c r="E41" s="5"/>
       <c r="G41" s="6"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>528069.74591406959</v>
+        <v>528069.74</v>
       </c>
       <c r="C42" s="4">
-        <v>764872.40858543455</v>
+        <v>764872.4</v>
       </c>
       <c r="E42" s="5"/>
       <c r="G42" s="6"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>